--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_122.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_122.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9893</v>
+        <v>2.3387</v>
       </c>
       <c r="J3" t="n">
-        <v>25.38</v>
+        <v>23.38</v>
       </c>
       <c r="K3" t="n">
-        <v>906.48</v>
+        <v>981.61</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.29</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>939.4486000000001</v>
+        <v>1108.5028</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8458</v>
+        <v>2.2052</v>
       </c>
       <c r="J4" t="n">
-        <v>23.57</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>781.22</v>
+        <v>83.13</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.01</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
-        <v>824.4767000000001</v>
+        <v>985.3208</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>7.9114</v>
+        <v>9.366400000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>26.51</v>
+        <v>26.83</v>
       </c>
       <c r="K5" t="n">
-        <v>3765.19</v>
+        <v>4512.13</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>7.88</v>
+        <v>7.09</v>
       </c>
       <c r="R5" t="n">
-        <v>3234.2823</v>
+        <v>3953.9014</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>9.664099999999999</v>
+        <v>11.2948</v>
       </c>
       <c r="J6" t="n">
-        <v>27.19</v>
+        <v>27.16</v>
       </c>
       <c r="K6" t="n">
-        <v>4717.36</v>
+        <v>5507.64</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.83</v>
+        <v>5.88</v>
       </c>
       <c r="R6" t="n">
-        <v>2802.6619</v>
+        <v>3275.774</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3801</v>
+        <v>5.211</v>
       </c>
       <c r="J7" t="n">
-        <v>31.08</v>
+        <v>30.69</v>
       </c>
       <c r="K7" t="n">
-        <v>2443.72</v>
+        <v>2870.89</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.82</v>
+        <v>4.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1979.6041</v>
+        <v>2350.4387</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2317</v>
+        <v>61.6672</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3864.13</v>
+        <v>4600.07</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>9.220000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="R8" t="n">
-        <v>3785.3958</v>
+        <v>4543.1651</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-5p625mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-5p625mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>13.8134</v>
+        <v>20.7214</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K9" t="n">
-        <v>482.7</v>
+        <v>665.36</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="R9" t="n">
-        <v>391.1862</v>
+        <v>510.0114</v>
       </c>
     </row>
   </sheetData>
